--- a/biology/Médecine/Maria_Van_Kerkhove/Maria_Van_Kerkhove.xlsx
+++ b/biology/Médecine/Maria_Van_Kerkhove/Maria_Van_Kerkhove.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maria DeJoseph Van Kerkhove, née le 20 février 1977 à New Hartford (État de New York), est une épidémiologiste américaine. Elle est responsable de l’unité des maladies émergentes à l'OMS. Elle est responsable technique de la gestion de l'épidémie de Covid-19 à l'OMS depuis janvier 2020.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maria Van Kerkhove nait le 20 février 1977 à New Hartford[1]. Après ses études secondaires, elle entre à l'université Cornell et obtient son Bachelor of Science en biologie en 1999[2]. En 2000, elle obtient son master of science en épidémiologie à l'université Stanford[3]. En 2009, elle soutient sa thèse de doctorat sur l'épidémiologie des maladies émergentes à la London School of Hygiene and Tropical Medicine. Son sujet de recherche était le Virus de la grippe A (H5N1) au Cambodge[4]. 
-Van Kerkhove commence la recherche alors qu'elle est à l'université Cornell. Elle travaille sur les plantes médicinales de l'Amazonie avec Eloy Rodriguez (en)[5]. Elle devient assistante de recherche à l'université Stanford[6]. De 2000 à 2005, elle est épidémiologiste principale au sein du cabinet de conseil en science Exponent[7]. De 2006 à 2008, elle travaille à l'Institut Pasteur du Cambodge où elle effectue des recherches sur le Virus de la grippe A (H5N1) pour sa thèse[4]. 
-De 2009 à 2015, elle est chercheuse principale au département d'analyse et modélisation des épidémies à l'Imperial College London[8]. Dans ce cade, elle travaille sur plusieurs virus notamment le virus Ebola, le virus Marburg, la grippe, la fièvre jaune, et le MERS-CoV[6].
-Elle est conférencière honoraire à l'Imperial College London depuis 2015[6]. En mars 2017, elle est nommée responsable technique de la gestion de l'épidémie de MERS-CoV au sein de l'OMS à Genève[9]. Elle est responsable technique de la gestion de l'épidémie de Covid-19 à l'OMS depuis janvier 2020[10]. Dans ce cadre, elle participe régulièrement à des conférences de presse et répond à des questions courantes sur la pandémie de Covid-19[11]. En février 2020, elle passe deux semaines en Chine pour comprendre le SARS COV2 et pour étudier la façon dont la Chine essaie de contrôler le virus[11]. 
-Elle est également à la tête de l’unité des maladies émergentes et des zoonoses à l'OMS depuis février 2020[12],[13].
-En juin 2020, elle déclare que sur la base d’études effectuées dans plusieurs pays, la transmission du virus par une personne asymptomatique semblait « très rare ». Ces propos, repris sur les réseaux sociaux font vivement réagir une partie de la communauté scientifique. Elle invoque ensuite un malentendu en disant qu'elle faisait référence à un très petit nombre d’études[14].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maria Van Kerkhove nait le 20 février 1977 à New Hartford. Après ses études secondaires, elle entre à l'université Cornell et obtient son Bachelor of Science en biologie en 1999. En 2000, elle obtient son master of science en épidémiologie à l'université Stanford. En 2009, elle soutient sa thèse de doctorat sur l'épidémiologie des maladies émergentes à la London School of Hygiene and Tropical Medicine. Son sujet de recherche était le Virus de la grippe A (H5N1) au Cambodge. 
+Van Kerkhove commence la recherche alors qu'elle est à l'université Cornell. Elle travaille sur les plantes médicinales de l'Amazonie avec Eloy Rodriguez (en). Elle devient assistante de recherche à l'université Stanford. De 2000 à 2005, elle est épidémiologiste principale au sein du cabinet de conseil en science Exponent. De 2006 à 2008, elle travaille à l'Institut Pasteur du Cambodge où elle effectue des recherches sur le Virus de la grippe A (H5N1) pour sa thèse. 
+De 2009 à 2015, elle est chercheuse principale au département d'analyse et modélisation des épidémies à l'Imperial College London. Dans ce cade, elle travaille sur plusieurs virus notamment le virus Ebola, le virus Marburg, la grippe, la fièvre jaune, et le MERS-CoV.
+Elle est conférencière honoraire à l'Imperial College London depuis 2015. En mars 2017, elle est nommée responsable technique de la gestion de l'épidémie de MERS-CoV au sein de l'OMS à Genève. Elle est responsable technique de la gestion de l'épidémie de Covid-19 à l'OMS depuis janvier 2020. Dans ce cadre, elle participe régulièrement à des conférences de presse et répond à des questions courantes sur la pandémie de Covid-19. En février 2020, elle passe deux semaines en Chine pour comprendre le SARS COV2 et pour étudier la façon dont la Chine essaie de contrôler le virus. 
+Elle est également à la tête de l’unité des maladies émergentes et des zoonoses à l'OMS depuis février 2020,.
+En juin 2020, elle déclare que sur la base d’études effectuées dans plusieurs pays, la transmission du virus par une personne asymptomatique semblait « très rare ». Ces propos, repris sur les réseaux sociaux font vivement réagir une partie de la communauté scientifique. Elle invoque ensuite un malentendu en disant qu'elle faisait référence à un très petit nombre d’études.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle vit à Genève en Suisse avec son mari Neil Van Kerkhov et ses deux fils[15]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle vit à Genève en Suisse avec son mari Neil Van Kerkhov et ses deux fils. 
 </t>
         </is>
       </c>
